--- a/egh446_simEnv2020/sim_env/ground_robot_waypoints.xlsx
+++ b/egh446_simEnv2020/sim_env/ground_robot_waypoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mejiasal/OneDrive - Queensland University of Technology/ARCAA/teaching/EGH446/2020/assignment/egh446_simEnv2020/sim_env/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48e6b3b4939676f1/Documents/EGH446/egh446_simEnv2020/sim_env/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{4E5A8C0A-EFB7-8A45-B91A-D7EE43621153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{05D3DAFF-DB93-BC49-A3B2-8CE17170F690}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{4E5A8C0A-EFB7-8A45-B91A-D7EE43621153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1468DABC-2671-4D13-831C-20700E1F716A}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-19240" windowWidth="20440" windowHeight="15440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMALL_S_HOME" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="MEDIUM_S_HOME" sheetId="6" r:id="rId5"/>
     <sheet name="L_AND_R_TURNS" sheetId="7" r:id="rId6"/>
     <sheet name="SPANNER" sheetId="8" r:id="rId7"/>
+    <sheet name="Assignment" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
@@ -43,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,16 +68,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,11 +96,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -99,6 +126,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,9 +450,9 @@
       <selection activeCell="C1" sqref="C1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +462,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -439,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>0.6</v>
       </c>
@@ -447,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>0.6</v>
       </c>
@@ -455,7 +486,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -463,7 +494,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -471,7 +502,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>0.6</v>
       </c>
@@ -479,7 +510,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -501,9 +532,9 @@
       <selection activeCell="C1" sqref="C1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +544,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -521,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -529,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -537,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -545,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -553,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -574,9 +605,9 @@
       <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +617,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -594,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -602,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -610,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -618,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -639,9 +670,9 @@
       <selection activeCell="C1" sqref="C1:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +682,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -659,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -667,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>0.86602540378443871</v>
       </c>
@@ -675,7 +706,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>0.49999999999999994</v>
       </c>
@@ -683,7 +714,7 @@
         <v>0.86602540378443871</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -691,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>-0.49999999999999994</v>
       </c>
@@ -699,7 +730,7 @@
         <v>0.86602540378443871</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>-0.86602540378443871</v>
       </c>
@@ -707,7 +738,7 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>-1</v>
       </c>
@@ -715,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>-0.86602540378443871</v>
       </c>
@@ -723,7 +754,7 @@
         <v>-0.49999999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>-0.49999999999999994</v>
       </c>
@@ -731,7 +762,7 @@
         <v>-0.86602540378443871</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>0</v>
       </c>
@@ -739,7 +770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>0.49999999999999994</v>
       </c>
@@ -747,7 +778,7 @@
         <v>-0.86602540378443871</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>0.86602540378443871</v>
       </c>
@@ -755,7 +786,7 @@
         <v>-0.49999999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -763,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>0</v>
       </c>
@@ -784,9 +815,9 @@
       <selection activeCell="C1" sqref="C1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +827,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -804,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -812,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -820,7 +851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -828,7 +859,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -836,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -844,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -866,9 +897,9 @@
       <selection activeCell="C1" sqref="C1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +909,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -886,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>0.5</v>
       </c>
@@ -894,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>0.5</v>
       </c>
@@ -902,7 +933,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -910,15 +941,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
@@ -932,13 +963,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,7 +979,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -956,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>100</v>
       </c>
@@ -964,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>150</v>
       </c>
@@ -972,7 +1003,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>200</v>
       </c>
@@ -980,7 +1011,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>200</v>
       </c>
@@ -988,7 +1019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>150</v>
       </c>
@@ -996,7 +1027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1004,7 +1035,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1012,7 +1043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>-50</v>
       </c>
@@ -1020,7 +1051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>-100</v>
       </c>
@@ -1028,7 +1059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>-100</v>
       </c>
@@ -1036,7 +1067,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>-50</v>
       </c>
@@ -1044,7 +1075,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>-10</v>
       </c>
@@ -1055,4 +1086,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB892B9D-2DA5-4278-913A-792D971BB25D}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>120</v>
+      </c>
+      <c r="B4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>140</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>170</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>150</v>
+      </c>
+      <c r="B7" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>120</v>
+      </c>
+      <c r="B8" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>100</v>
+      </c>
+      <c r="B9" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>50</v>
+      </c>
+      <c r="B15" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>